--- a/Team-Data/2008-09/4-2-2008-09.xlsx
+++ b/Team-Data/2008-09/4-2-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -780,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,10 +933,10 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,28 +945,28 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,7 +975,7 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -920,13 +987,13 @@
         <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.467</v>
+        <v>0.474</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
@@ -1281,19 +1348,19 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>7</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -1409,28 +1476,28 @@
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.755</v>
@@ -1439,19 +1506,19 @@
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.4</v>
@@ -1463,10 +1530,10 @@
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
         <v>9.300000000000001</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,19 +1563,19 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3</v>
       </c>
-      <c r="AM6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2</v>
-      </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1526,10 +1593,10 @@
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J8" t="n">
         <v>79.3</v>
@@ -1782,19 +1849,19 @@
         <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="Q8" t="n">
         <v>0.758</v>
@@ -1803,40 +1870,40 @@
         <v>11.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
         <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1860,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1878,10 +1945,10 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1899,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1908,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2060,13 +2127,13 @@
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2409,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>8</v>
@@ -2436,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2445,13 +2512,13 @@
         <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2588,7 +2655,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2624,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,10 +2700,10 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2800,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2812,13 +2879,13 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
@@ -2877,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2910,25 +2977,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2955,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
@@ -2964,10 +3031,10 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2985,13 +3052,13 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.443</v>
@@ -3426,31 +3493,31 @@
         <v>16.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
         <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3459,13 +3526,13 @@
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z17" t="n">
         <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
         <v>98.90000000000001</v>
@@ -3474,7 +3541,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3504,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3528,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW17" t="n">
         <v>13</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3680,10 +3747,10 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
@@ -3692,10 +3759,10 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3862,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
@@ -3874,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3898,16 +3965,16 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4026,10 +4093,10 @@
         <v>8</v>
       </c>
       <c r="AF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4074,7 +4141,7 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>15</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4217,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="n">
         <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.527</v>
+        <v>0.521</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>79.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M24" t="n">
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P24" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.748</v>
@@ -4715,7 +4782,7 @@
         <v>12.6</v>
       </c>
       <c r="S24" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T24" t="n">
         <v>41.4</v>
@@ -4724,34 +4791,34 @@
         <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
@@ -4763,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4796,25 +4863,25 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4990,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
         <v>47</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.644</v>
+        <v>0.635</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,13 +5149,13 @@
         <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5100,34 +5167,34 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.613</v>
+        <v>0.622</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,10 +5847,10 @@
         <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5795,25 +5862,25 @@
         <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
         <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5825,22 +5892,22 @@
         <v>4.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB30" t="n">
         <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5852,10 +5919,10 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
@@ -5879,31 +5946,31 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5915,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>0.234</v>
+        <v>0.224</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O31" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P31" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
@@ -5992,40 +6059,40 @@
         <v>28.2</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>30</v>
@@ -6037,7 +6104,7 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6061,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6085,7 +6152,7 @@
         <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6094,7 +6161,7 @@
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2008-09</t>
+          <t>2009-04-02</t>
         </is>
       </c>
     </row>
